--- a/p_笔试2017.xlsx
+++ b/p_笔试2017.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860"/>
+    <workbookView xWindow="240" yWindow="255" windowWidth="14805" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="笔试联系人信息" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zhangqiuxia@dhcc.com.cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2017-06-23  14:30 pm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,7 +85,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1395411045@qq.com</t>
+    <t>为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +467,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -506,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -523,10 +523,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -643,8 +643,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -676,16 +676,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -693,16 +693,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -806,8 +806,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" display="zhangqiuxia@dhcc.com.cn"/>
+    <hyperlink ref="C3" r:id="rId2" display="1395411045@qq.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
